--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1721951.531520558</v>
+        <v>-1680325.898442342</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10919243.2393679</v>
+        <v>10928094.3665211</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>132.4132097347949</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>269.8993253051501</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>73.38308346949363</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>36.31279494251228</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>101.8662825808772</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -899,13 +899,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>291.4755276935307</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>267.7357237463023</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>27.00612044394932</v>
       </c>
       <c r="W7" t="n">
-        <v>40.36421110341747</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>227.4603528348329</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>163.7825296617781</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>152.355512532834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>131.071535017706</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>172.6623007436913</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>64.34965323462492</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864827</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1777,10 +1777,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>73.01514676193472</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,10 +1822,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>187.5234134555184</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>28.46824604904752</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170439</v>
+        <v>158.7868437042805</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2333,7 +2333,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>286.238853011215</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2536,13 +2536,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>128.5829343862774</v>
       </c>
     </row>
     <row r="26">
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>280.9390873188494</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2810,7 +2810,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -3001,13 +3001,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>172.6623007436909</v>
+        <v>278.9374345281238</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3044,7 +3044,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3332,7 +3332,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245954</v>
       </c>
     </row>
     <row r="36">
@@ -3442,7 +3442,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3661,25 +3661,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277813</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S40" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3898,25 +3898,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4135,25 +4135,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742933144</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1199.670920262923</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>1165.568851486751</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>892.9432703704374</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4328,52 +4328,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W2" t="n">
-        <v>1623.059103343555</v>
+        <v>586.8368489261309</v>
       </c>
       <c r="X2" t="n">
-        <v>1607.95704396327</v>
+        <v>167.6943855054416</v>
       </c>
       <c r="Y2" t="n">
-        <v>1199.670920262923</v>
+        <v>167.6943855054416</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>236.2145344268032</v>
+        <v>873.3120173069476</v>
       </c>
       <c r="C4" t="n">
-        <v>236.2145344268032</v>
+        <v>700.7503057901725</v>
       </c>
       <c r="D4" t="n">
-        <v>199.5349435757807</v>
+        <v>700.7503057901725</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5349435757807</v>
+        <v>530.9923020409099</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V4" t="n">
-        <v>1172.870982911978</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W4" t="n">
-        <v>900.8445784982696</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="X4" t="n">
-        <v>655.4528238316821</v>
+        <v>1292.550306711827</v>
       </c>
       <c r="Y4" t="n">
-        <v>428.0331531457903</v>
+        <v>1065.130636025935</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1242.924883402528</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1208.822814626355</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>772.9130298007994</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>478.4933048578391</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199648</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199648</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199648</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>562.6504997812823</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>562.6504997812823</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1189.145706210988</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.640912640693</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599287</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352344</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352344</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2311.226536225383</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>2052.0042335424</v>
       </c>
       <c r="V5" t="n">
-        <v>855.2769502042993</v>
+        <v>1689.387283476226</v>
       </c>
       <c r="W5" t="n">
-        <v>450.4214956153326</v>
+        <v>1284.531828887259</v>
       </c>
       <c r="X5" t="n">
-        <v>179.9813706190676</v>
+        <v>1269.429769506974</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>1265.184049847031</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583396</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949819</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415352</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684889</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846505</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083442</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.68954842750448</v>
       </c>
       <c r="J6" t="n">
-        <v>319.8519551513677</v>
+        <v>401.2478733937168</v>
       </c>
       <c r="K6" t="n">
-        <v>319.8519551513677</v>
+        <v>401.2478733937168</v>
       </c>
       <c r="L6" t="n">
-        <v>739.9048540962709</v>
+        <v>401.2478733937168</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>429.4587135897352</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="O6" t="n">
-        <v>1580.010651986078</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.587300558882</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381028</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>685.9021756729128</v>
+        <v>1129.684035878928</v>
       </c>
       <c r="C7" t="n">
-        <v>685.9021756729128</v>
+        <v>957.1223243621531</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>791.2443315636758</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>621.4863278144131</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>444.7792737761694</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>279.187998801997</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923715</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.62587526704689</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.3843298381825</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>743.5942116061435</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1203.078078787057</v>
       </c>
       <c r="N7" t="n">
-        <v>1235.38760622724</v>
+        <v>1645.336881944701</v>
       </c>
       <c r="O7" t="n">
-        <v>1235.38760622724</v>
+        <v>2065.006131170483</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.513025140825</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352344</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352344</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2372.052394650341</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2372.052394650341</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>2093.619393903446</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>2066.340484364103</v>
       </c>
       <c r="W7" t="n">
-        <v>685.9021756729128</v>
+        <v>1794.314079950395</v>
       </c>
       <c r="X7" t="n">
-        <v>685.9021756729128</v>
+        <v>1548.922325283807</v>
       </c>
       <c r="Y7" t="n">
-        <v>685.9021756729128</v>
+        <v>1321.502654597915</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>548.3728793740404</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>119.7912051113087</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>1107.976466382457</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>1107.976466382457</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1613.531556264254</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1613.531556264254</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1612.716505715692</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1382.958573559295</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>974.6724498589482</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>1128.138272039508</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>955.5765605227328</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>789.6985677242556</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>187.8381257054811</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.94366860160834</v>
+        <v>1319.956890758495</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2217.256985197552</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1779.114512380976</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1343.20472755542</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>909.4299827137152</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5625531229228</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>80.16472174618676</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>80.16472174618676</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618676</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>515.4194091991046</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1349.769701157282</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L11" t="n">
-        <v>1349.769701157282</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M11" t="n">
-        <v>1349.769701157282</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>1653.24775994704</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2633.427426517346</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3461.737301350743</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4008.236087309338</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309338</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4008.236087309338</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4008.236087309338</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4008.236087309338</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3875.840597392463</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3470.985142803496</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3051.842679382807</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2643.55655568246</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374796</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.8800055741218</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206751</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476288</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637904</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299743</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618676</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066444</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728567</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1085.492766498581</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1085.492766498581</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1085.492766498581</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1085.492766498581</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.77040200398</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991419</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380219</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1159.222882358068</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>986.661170841293</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>820.7831780428157</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>651.0251742935531</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>474.3181202553092</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>308.7268452811369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>168.8246709715114</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618676</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108766</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820122</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499733</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2675.406510354358</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2516.165141652355</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2270.28569523081</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2095.879330843243</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>2095.879330843243</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1823.852926429535</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1578.461171762947</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1351.041501077055</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5285,22 +5285,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
         <v>5029.390139722817</v>
@@ -5315,7 +5315,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>875.8255515988632</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>703.2638400820881</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>537.3858472836108</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
         <v>190.9207894961043</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2623.749955382047</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2377.870508960502</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V16" t="n">
-        <v>2035.366634303136</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,49 +5516,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883951</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>639.19296617162</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731427</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>473.3149733731427</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>296.607919334899</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>131.0166443607266</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0166443607266</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5692,31 +5692,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.36663430314</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.41112617357</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759862</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.992967093274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5777,10 +5777,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>697.7765985000558</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>528.018594750793</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>351.3115407125492</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="23">
@@ -5981,34 +5981,34 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6406,16 +6406,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
         <v>1889.413325832886</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
         <v>190.9207894961043</v>
@@ -6649,22 +6649,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U31" t="n">
-        <v>2292.381813755403</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,43 +6707,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6838,7 +6838,7 @@
         <v>910.3590448886291</v>
       </c>
       <c r="D34" t="n">
-        <v>760.880759503028</v>
+        <v>760.8807595030279</v>
       </c>
       <c r="E34" t="n">
         <v>607.5224631666414</v>
@@ -6862,7 +6862,7 @@
         <v>495.7456864773249</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806457</v>
+        <v>930.0289214806459</v>
       </c>
       <c r="M34" t="n">
         <v>1405.586141896919</v>
@@ -6871,16 +6871,16 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751064</v>
+        <v>2299.660900751065</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956766</v>
+        <v>2663.241147956767</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056458</v>
+        <v>2847.507276056459</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174706</v>
+        <v>2842.489162174707</v>
       </c>
       <c r="S34" t="n">
         <v>2699.647500885579</v>
@@ -6892,7 +6892,7 @@
         <v>2208.134468542892</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826198</v>
+        <v>1937.578667826199</v>
       </c>
       <c r="W34" t="n">
         <v>1681.951970825366</v>
@@ -6929,52 +6929,52 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J35" t="n">
-        <v>444.7825334645028</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>1279.132825422681</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P35" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V35" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X35" t="n">
         <v>3227.177156566212</v>
@@ -7008,13 +7008,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K36" t="n">
         <v>1102.894748428211</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080659</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850156</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J37" t="n">
         <v>200.2197420758676</v>
@@ -7117,28 +7117,28 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V37" t="n">
         <v>1932.884531231237</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976694</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835859</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7178,46 +7178,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2177.324623035294</v>
       </c>
       <c r="M38" t="n">
-        <v>3334.372458245846</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="N38" t="n">
-        <v>3334.372458245846</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7339,13 +7339,13 @@
         <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301956</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
         <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156102</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
         <v>2658.547011361804</v>
@@ -7354,28 +7354,28 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E41" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197257</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581808</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7433,7 +7433,7 @@
         <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
         <v>4811.083017387606</v>
@@ -7451,10 +7451,10 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
         <v>448.1887018024878</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
         <v>442.520979946312</v>
@@ -7564,28 +7564,28 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823643</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856853</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301958</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694963</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156104</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361806</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
         <v>2842.813139461497</v>
@@ -7594,25 +7594,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390329</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.7629969615</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7646,28 +7646,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581785</v>
+        <v>444.7825334645019</v>
       </c>
       <c r="K44" t="n">
-        <v>931.9169956339958</v>
+        <v>1279.13282542268</v>
       </c>
       <c r="L44" t="n">
-        <v>2006.976961886855</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="M44" t="n">
-        <v>3164.024797097406</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N44" t="n">
-        <v>4289.755780533854</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O44" t="n">
-        <v>4289.755780533854</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P44" t="n">
-        <v>4878.335183790892</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790892</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790892</v>
@@ -7676,22 +7676,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574024</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566211</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.29074027874</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
         <v>442.520979946312</v>
@@ -7828,28 +7828,28 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
         <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,22 +8058,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8222,19 +8222,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>77.54539097102781</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380861</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380861</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,28 +8292,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201044</v>
+        <v>28.49579817779636</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>632.8234408380861</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>119.9805436479996</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>469.6822035600078</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,16 +8690,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="N11" t="n">
-        <v>306.5434937270277</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158829</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>935.0031416802861</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -9164,22 +9164,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>935.0031416802861</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>1082.305540278395</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>350.723060392611</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10826,10 +10826,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>818.3363029781617</v>
       </c>
       <c r="M38" t="n">
-        <v>901.152332228357</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>350.7230603926101</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,22 +11303,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>594.524649754585</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>289.6233650452638</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>161.6513616721498</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>42.99390933858513</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>227.9192455478057</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
     </row>
     <row r="14">
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>84.63380825304858</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>81.78272691405297</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>59.30510368402389</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627262</v>
+        <v>5.148518520150134</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>96.5625395927554</v>
       </c>
     </row>
     <row r="26">
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>3.146865729424462</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,13 +24889,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>111.423652304583</v>
+        <v>5.148518520149992</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>869236.5226381064</v>
+        <v>722056.3077790861</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>949382.7131923594</v>
+        <v>957936.8095475546</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>949382.7131923594</v>
+        <v>959359.9148384933</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>806699.1861842953</v>
+        <v>962584.8253557729</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>962584.8253557732</v>
+        <v>962584.8253557729</v>
       </c>
     </row>
     <row r="8">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12242.14400372031</v>
+        <v>10109.0974115606</v>
       </c>
       <c r="C2" t="n">
-        <v>13403.68299726021</v>
+        <v>13403.68299726022</v>
       </c>
       <c r="D2" t="n">
         <v>13403.68299726021</v>
       </c>
       <c r="E2" t="n">
-        <v>11038.39301127409</v>
+        <v>13171.43960343381</v>
       </c>
       <c r="F2" t="n">
         <v>13171.43960343381</v>
@@ -26344,13 +26344,13 @@
         <v>13403.68299726022</v>
       </c>
       <c r="M2" t="n">
-        <v>13403.68299726022</v>
+        <v>13403.68299726021</v>
       </c>
       <c r="N2" t="n">
         <v>13403.68299726022</v>
       </c>
       <c r="O2" t="n">
-        <v>13403.68299726021</v>
+        <v>13403.68299726022</v>
       </c>
       <c r="P2" t="n">
         <v>13403.68299726021</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246254</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106391</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725242</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471869</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338233</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.56827099789</v>
+        <v>21768.74196143496</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978833</v>
+        <v>137577.7007378519</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341196</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167177.9510711174</v>
+        <v>118479.0404528104</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154526.7187594515</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>45725.81943247914</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="F4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
+        <v>54561.82510962271</v>
+      </c>
+      <c r="I4" t="n">
         <v>54561.82510962276</v>
-      </c>
-      <c r="I4" t="n">
-        <v>54561.8251096228</v>
       </c>
       <c r="J4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.8251096227</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>59904.18292625598</v>
+        <v>59904.18292625602</v>
       </c>
       <c r="M4" t="n">
         <v>68372.72551926991</v>
       </c>
       <c r="N4" t="n">
-        <v>68372.72551926989</v>
+        <v>68372.72551926988</v>
       </c>
       <c r="O4" t="n">
         <v>68372.72551926989</v>
       </c>
       <c r="P4" t="n">
-        <v>68372.72551926986</v>
+        <v>68372.72551926989</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295563</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710193</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,13 +26500,13 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
         <v>75515.61472608971</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-356551.8958643294</v>
+        <v>-310315.490396752</v>
       </c>
       <c r="C6" t="n">
-        <v>-239717.7847911266</v>
+        <v>-280595.4503576094</v>
       </c>
       <c r="D6" t="n">
-        <v>-239717.7847911266</v>
+        <v>-219595.3390113505</v>
       </c>
       <c r="E6" t="n">
-        <v>-268119.9850208312</v>
+        <v>-301486.9576724138</v>
       </c>
       <c r="F6" t="n">
-        <v>-198247.5298167001</v>
+        <v>-119131.8484513641</v>
       </c>
       <c r="G6" t="n">
-        <v>-119108.6241119815</v>
+        <v>-119131.8484513641</v>
       </c>
       <c r="H6" t="n">
-        <v>-119108.6241119815</v>
+        <v>-119131.8484513641</v>
       </c>
       <c r="I6" t="n">
-        <v>-119108.6241119815</v>
+        <v>-119131.8484513641</v>
       </c>
       <c r="J6" t="n">
-        <v>-230123.0894569717</v>
+        <v>-230146.3137963543</v>
       </c>
       <c r="K6" t="n">
-        <v>-119108.6241119814</v>
+        <v>-172800.1755147464</v>
       </c>
       <c r="L6" t="n">
-        <v>-138572.2267382543</v>
+        <v>-147352.4004286914</v>
       </c>
       <c r="M6" t="n">
-        <v>-259843.0786459828</v>
+        <v>-268062.3579859512</v>
       </c>
       <c r="N6" t="n">
-        <v>-198133.8575215114</v>
+        <v>-130484.6572480994</v>
       </c>
       <c r="O6" t="n">
         <v>-130484.6572480994</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M2" t="n">
         <v>16.23571033874737</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380861</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827334</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179818</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977083</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072301</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574108</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179818</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977083</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702081</v>
+        <v>552.0685893398656</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574108</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179818</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977083</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072301</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574108</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>243.2449436726308</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>327.4238165735834</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>127.9064179279802</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>73.07370091698412</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,13 +27619,13 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>137.9614696997571</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>147.2153150401801</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>257.0798326043245</v>
       </c>
       <c r="W7" t="n">
-        <v>228.9419292661539</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.32966510043002</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>187.4906859516495</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>4.277894049992028</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>72.78996144619879</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="35">
@@ -30052,7 +30052,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874765</v>
       </c>
     </row>
     <row r="36">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874862</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874759</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>77.54539097102781</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380861</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380861</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,31 +35009,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201044</v>
+        <v>28.49579817779636</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>632.8234408380861</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>296.5687363523682</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>119.9805436479996</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>469.6822035600078</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,13 +35252,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="N11" t="n">
-        <v>306.5434937270277</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158829</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132075</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,7 +35653,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>935.0031416802861</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35884,22 +35884,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>935.0031416802861</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36060,7 +36060,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821575</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>1082.305540278395</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37230,22 +37230,22 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M34" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N34" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209006</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>350.723060392611</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -37321,13 +37321,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37546,10 +37546,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>818.3363029781617</v>
       </c>
       <c r="M38" t="n">
-        <v>901.152332228357</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033056</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343477</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348452</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>350.7230603926101</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38023,22 +38023,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>594.524649754585</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
